--- a/test_dataset.xlsx
+++ b/test_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lebedevmatvey/Documents/Nlp_fastWin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28120F27-D49A-264C-B146-F9E5232CEBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5195D55D-9C56-F946-8EC7-70F7FA02D29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="500" windowWidth="20980" windowHeight="15500" xr2:uid="{F79E1FAE-CF85-2B42-A21E-68BE4C5276CA}"/>
   </bookViews>

--- a/test_dataset.xlsx
+++ b/test_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lebedevmatvey/Documents/Nlp_fastWin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5195D55D-9C56-F946-8EC7-70F7FA02D29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DCEAEB-2241-C64D-AD31-3744188B915C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="500" windowWidth="20980" windowHeight="15500" xr2:uid="{F79E1FAE-CF85-2B42-A21E-68BE4C5276CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24460" windowHeight="15500" xr2:uid="{F79E1FAE-CF85-2B42-A21E-68BE4C5276CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
